--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2171.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2171.xlsx
@@ -354,7 +354,7 @@
         <v>2.5600725196709</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.424606447249352</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2171.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2171.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.315942640116548</v>
+        <v>1.209707140922546</v>
       </c>
       <c r="B1">
-        <v>2.5600725196709</v>
+        <v>2.279402256011963</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.424606447249352</v>
+        <v>1.430251479148865</v>
       </c>
       <c r="E1">
-        <v>0.6674358986482959</v>
+        <v>0.907259464263916</v>
       </c>
     </row>
   </sheetData>
